--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -1388,14 +1388,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1485,7 +1481,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -1568,10 +1564,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ace Side</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1794,15 +1794,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Silver Van (Stools)
-Ace Side</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1871,10 +1866,15 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Silver Van (Stools)
+Ace Side</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2032,16 +2032,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Supv Ace,
-Optima,
-(Stools)</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2085,10 +2079,16 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Supv Ace,
+Optima,
+(Stools)</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2148,14 +2148,10 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Ace Side</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2215,13 +2211,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:00</t>
+          <t>Ace Side</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2267,14 +2262,13 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>@ Store,
-(Stools)
-Ace Side</t>
+Until 12:00</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2332,14 +2326,14 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>@ Store,
-Until 12:00,
-(Stools)</t>
+(Stools)
+Ace Side</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2389,13 +2383,14 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>@ Store,
-Ace Side</t>
+Until 12:00,
+(Stools)</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2470,12 +2465,13 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2534,13 +2530,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store,
-Ace Side</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2595,12 +2590,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Ace Side</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2662,7 +2658,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -2729,13 +2725,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2801,9 +2796,22 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>25)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2918,11 +2926,7 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2985,7 +2989,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3036,7 +3040,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3079,7 +3083,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3126,7 +3130,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3177,7 +3181,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3222,7 +3226,11 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3264,21 +3272,9 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3321,17 +3317,17 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3376,17 +3372,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3419,12 +3415,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3462,12 +3458,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3505,12 +3501,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3560,12 +3556,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3611,12 +3607,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3660,9 +3656,21 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3739,11 +3747,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3784,7 +3788,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3825,7 +3829,11 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -1441,7 +1441,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Driver, Corolla</t>
+          <t>Driver, Corolla - Meinke in CG for trani flush at 7:30</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -1441,7 +1441,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Driver, Corolla - Meinke in CG for trani flush at 7:30</t>
+          <t>Driver, Corolla - Meineke in CG for trani flush at 7:30</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -3067,7 +3067,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3350,21 +3350,9 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3449,7 +3437,11 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3490,7 +3482,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3543,11 +3535,7 @@
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -2608,7 +2608,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2675,7 +2679,11 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -2742,7 +2750,11 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ANDY LIQUOR STORE - MUKWONAGO</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -2821,7 +2833,11 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>411 MAIN ST</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -2872,7 +2888,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/PrnTLtbRXx7W2zQg8</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -3001,9 +3021,21 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -3052,9 +3084,21 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -2566,8 +2566,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Corolla</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -980,7 +980,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>6:00 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
+          <t>6:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1709,8 +1709,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>6:30 
-@ Hwy N</t>
+          <t>Meet @ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2901,12 +2900,13 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2966,15 +2966,10 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -3036,16 +3031,8 @@
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4177,21 +4177,9 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4244,7 +4232,11 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4273,7 +4265,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4304,7 +4296,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4323,37 +4315,6 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -3042,7 +3042,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3325,21 +3325,9 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3424,7 +3412,11 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3469,7 +3461,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3510,11 +3502,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -2325,14 +2325,14 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>@ Store,
-(Stools)
-Ace Side</t>
+Until 12:00,
+(Stools)</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2382,14 +2382,14 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>@ Store,
-Until 12:00,
-(Stools)</t>
+(Stools)
+Ace Side</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -3792,11 +3792,7 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3835,11 +3831,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -988,7 +988,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>*If Jerry's car leaves before store is over (at 12:00) Victor and Greg also leave w/ him</t>
+          <t>*If Jerry's car leaves before store is over (at 12:00) Greg also leave w/ him</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2806,22 +2806,9 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>25)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 12:00</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2945,7 +2932,11 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -3003,7 +2994,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3058,7 +3049,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3113,7 +3104,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>2 SISTERS PIGGLY WIGGLY #266, MARKESAN</t>
+          <t>450 N MARGARET ST</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3160,7 +3151,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>450 N MARGARET ST</t>
+          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3211,7 +3202,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nVgmJAwKdEjhqQAt6</t>
+          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3256,11 +3247,7 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3302,9 +3289,21 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3335,17 +3334,17 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3378,17 +3377,17 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3425,12 +3424,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3472,12 +3471,12 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3511,12 +3510,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3562,12 +3561,12 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3613,12 +3612,12 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3662,21 +3661,9 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>

--- a/12-08-24 to 12-14-24 Madison Schedule.xlsx
+++ b/12-08-24 to 12-14-24 Madison Schedule.xlsx
@@ -3610,21 +3610,9 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
